--- a/wd-admin-web/src/main/webapp/upload/excelFile/SS系统订单格式.xlsx
+++ b/wd-admin-web/src/main/webapp/upload/excelFile/SS系统订单格式.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>序列</t>
   </si>
@@ -66,6 +66,9 @@
     <t>地址</t>
   </si>
   <si>
+    <t>5965456177</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t>菜鸟物流</t>
   </si>
   <si>
+    <t>5965435135</t>
+  </si>
+  <si>
     <t>服装</t>
   </si>
   <si>
@@ -124,27 +130,6 @@
   </si>
   <si>
     <t>陕西省 西安市 新城区 胡家庙街道唐韵三坊福泽坊，710005</t>
-  </si>
-  <si>
-    <t>圆通</t>
-  </si>
-  <si>
-    <t>YT4492578657161</t>
-  </si>
-  <si>
-    <t>待计算</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>YT4492576400285</t>
-  </si>
-  <si>
-    <t>温江韵达快递</t>
-  </si>
-  <si>
-    <t>4305922990961</t>
   </si>
 </sst>
 </file>
@@ -1184,31 +1169,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="11.75" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="5.625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="4" width="17.375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="2" width="5.875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="2" width="5.625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="7.625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="5.875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="7.375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="2" width="7.625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="3" width="5.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="3" width="14.625" collapsed="false"/>
-    <col min="12" max="12" style="2" width="8.125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="2" width="8.125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="2" width="5.75" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="2" width="13.875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="2" width="13.375" collapsed="false"/>
-    <col min="17" max="16384" style="2" width="8.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="2" width="11.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="5.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="17.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="5.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="5.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="7.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="5.875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="7.375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="7.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="5.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="14.625" collapsed="true"/>
+    <col min="12" max="12" style="2" width="8.125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="8.125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="5.75" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="13.875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="2" width="13.375" collapsed="true"/>
+    <col min="17" max="16384" style="2" width="8.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
@@ -1263,126 +1248,93 @@
       <c r="Q1" s="8"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A2" s="2">
-        <v>1090156754</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A3" s="2">
-        <v>1090816994</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="2">
-        <v>72941912</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
